--- a/test_result_data/hasil_uji_Rata-Rata Support Vector Machine.xlsx
+++ b/test_result_data/hasil_uji_Rata-Rata Support Vector Machine.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05933333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1058201058201058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.7766666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_Rata-Rata Support Vector Machine.xlsx
+++ b/test_result_data/hasil_uji_Rata-Rata Support Vector Machine.xlsx
@@ -442,11 +442,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Presisi</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.7884667835573739</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.8753889830113379</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7766666666666666</v>
+        <v>0.7933333333333333</v>
       </c>
     </row>
   </sheetData>
